--- a/ICT Coordinators.xlsx
+++ b/ICT Coordinators.xlsx
@@ -8,15 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="ICT Data Coordinators" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Masekake Lesiamo</t>
   </si>
@@ -115,6 +113,12 @@
   </si>
   <si>
     <t>Thaba-Putsoa</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Constituency</t>
   </si>
 </sst>
 </file>
@@ -449,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A5"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -463,172 +467,156 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1"/>
-      <c r="B5" t="s">
+    <row r="6" spans="1:2">
+      <c r="A6" s="1"/>
+      <c r="B6" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1"/>
-      <c r="B11" t="s">
+    <row r="12" spans="1:2">
+      <c r="A12" s="1"/>
+      <c r="B12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
         <v>20</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="1" t="s">
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="1"/>
-      <c r="B14" t="s">
+    <row r="15" spans="1:2">
+      <c r="A15" s="1"/>
+      <c r="B15" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
         <v>31</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>32</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A5:A6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/ICT Coordinators.xlsx
+++ b/ICT Coordinators.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Masekake Lesiamo</t>
   </si>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t>Constituency</t>
+  </si>
+  <si>
+    <t>Number</t>
   </si>
 </sst>
 </file>
@@ -142,7 +145,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -150,14 +153,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -453,170 +481,224 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+      <c r="C1" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+      <c r="C2" s="3">
+        <v>58081218</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
+      <c r="C3" s="3">
+        <v>57779890</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
+      <c r="C4" s="3">
+        <v>56878442</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1"/>
-      <c r="B6" t="s">
+      <c r="C5" s="5">
+        <v>50858443</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
+      <c r="C7" s="3">
+        <v>59971798</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
+      <c r="C8" s="3">
+        <v>58816170</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
+      <c r="C9" s="3">
+        <v>63242698</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
+      <c r="C10" s="3">
+        <v>56281709</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1"/>
-      <c r="B12" t="s">
+      <c r="C11" s="5">
+        <v>59096398</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="4"/>
+      <c r="B12" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="1" t="s">
+      <c r="C13" s="3">
+        <v>58094269</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="1"/>
-      <c r="B15" t="s">
+      <c r="C14" s="5">
+        <v>59582352</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="4"/>
+      <c r="B15" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
+      <c r="C15" s="5"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
+      <c r="C16" s="3">
+        <v>59417419</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
+      <c r="C17" s="3">
+        <v>57107146</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
+      <c r="C18" s="3">
+        <v>67371808</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="C19" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A5:A6"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C5:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>